--- a/public/cohort/fileExcel/xlsxUIT/OPEN/NLT_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/NLT_OPEN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -931,6 +931,9 @@
   </si>
   <si>
     <t>mavo?</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets</t>
@@ -2232,7 +2235,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2405,7 +2408,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2450,7 +2453,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -2466,7 +2469,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -2503,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
         <v>66</v>
@@ -2772,7 +2775,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602337963</v>
+        <v>44385.633391204</v>
       </c>
       <c r="D10" s="2">
         <v>945</v>
@@ -2799,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -2844,7 +2847,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -2860,7 +2863,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -2898,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P11" s="32" t="s">
         <v>74</v>
@@ -4528,7 +4531,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -4701,7 +4704,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4746,7 +4749,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -4762,7 +4765,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -4799,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
         <v>66</v>
@@ -5068,7 +5071,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602337963</v>
+        <v>44385.633391204</v>
       </c>
       <c r="D10" s="2">
         <v>431</v>
@@ -5095,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5140,7 +5143,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -5156,7 +5159,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -5194,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P11" s="32" t="s">
         <v>74</v>
@@ -5331,7 +5334,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5462,7 +5465,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5480,7 +5483,7 @@
         <v>11</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5570,7 +5573,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7342,7 +7345,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602337963</v>
+        <v>44385.633391204</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7714,7 +7717,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7732,7 +7735,7 @@
         <v>11</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7822,7 +7825,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -8263,7 +8266,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9096,7 +9099,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -9242,7 +9245,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2">
         <v>955</v>
@@ -9252,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6" s="45">
         <v>5</v>
@@ -9271,10 +9274,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -9352,7 +9355,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" s="45">
         <v>5</v>
@@ -9369,10 +9372,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -9416,7 +9419,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -9432,7 +9435,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -9450,7 +9453,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I8" s="45">
         <v>10</v>
@@ -9465,7 +9468,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9510,7 +9513,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -9526,7 +9529,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -9545,7 +9548,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -9632,7 +9635,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602337963</v>
+        <v>44385.633391204</v>
       </c>
       <c r="D10" s="2">
         <v>959</v>
@@ -9642,7 +9645,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10" s="45">
         <v>8</v>
@@ -9657,7 +9660,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9702,7 +9705,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -9718,7 +9721,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -11376,7 +11379,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -11522,7 +11525,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2">
         <v>435</v>
@@ -11532,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6" s="45">
         <v>5</v>
@@ -11551,10 +11554,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11632,7 +11635,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" s="45">
         <v>5</v>
@@ -11649,10 +11652,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -11696,7 +11699,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -11712,7 +11715,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -11730,7 +11733,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I8" s="45">
         <v>10</v>
@@ -11745,7 +11748,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11790,7 +11793,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -11806,7 +11809,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -11825,7 +11828,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11912,7 +11915,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602337963</v>
+        <v>44385.633391204</v>
       </c>
       <c r="D10" s="2">
         <v>439</v>
@@ -11922,7 +11925,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10" s="45">
         <v>8</v>
@@ -11937,7 +11940,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -11982,7 +11985,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -11998,7 +12001,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -12161,7 +12164,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12292,7 +12295,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -12312,7 +12315,7 @@
         <v>11</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -12384,7 +12387,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -12403,10 +12406,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -12478,7 +12481,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I20" s="45">
         <v>3</v>
@@ -12498,7 +12501,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -12570,7 +12573,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -12590,7 +12593,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -13846,7 +13849,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14200,7 +14203,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602337963</v>
+        <v>44385.633391204</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14572,7 +14575,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -14592,7 +14595,7 @@
         <v>11</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14664,7 +14667,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -14683,10 +14686,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14758,7 +14761,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I20" s="45">
         <v>3</v>
@@ -14778,7 +14781,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -14850,7 +14853,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -14870,7 +14873,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -15147,7 +15150,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15271,7 +15274,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -15289,7 +15292,7 @@
         <v>11</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15361,7 +15364,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15378,10 +15381,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15453,7 +15456,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -15470,10 +15473,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -15545,7 +15548,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -15563,7 +15566,7 @@
         <v>11</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -16164,7 +16167,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16518,7 +16521,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602337963</v>
+        <v>44385.633391204</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -17545,7 +17548,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17563,7 +17566,7 @@
         <v>11</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17635,7 +17638,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17652,10 +17655,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -17727,7 +17730,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -17744,10 +17747,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -17819,7 +17822,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -17837,7 +17840,7 @@
         <v>11</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -18084,7 +18087,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/NLT_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/NLT_OPEN.xlsx
@@ -888,6 +888,9 @@
     <t>Forensisch onderzoek</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
@@ -931,9 +934,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets</t>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2474,7 +2474,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -2509,7 +2509,7 @@
         <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>239</v>
@@ -2587,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2686,7 +2686,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -2706,7 +2706,7 @@
         <v>11</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -2771,11 +2771,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633391204</v>
+        <v>44387.766122685</v>
       </c>
       <c r="D10" s="2">
         <v>945</v>
@@ -2785,7 +2785,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -2868,7 +2868,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2882,7 +2882,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="45">
         <v>1</v>
@@ -2904,7 +2904,7 @@
         <v>8</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4770,7 +4770,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4783,7 +4783,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -4805,7 +4805,7 @@
         <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>128</v>
@@ -4883,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4903,7 +4903,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4982,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -5002,7 +5002,7 @@
         <v>11</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -5067,11 +5067,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633391204</v>
+        <v>44387.766122685</v>
       </c>
       <c r="D10" s="2">
         <v>431</v>
@@ -5081,7 +5081,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -5098,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5164,7 +5164,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5178,7 +5178,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="45">
         <v>1</v>
@@ -5200,7 +5200,7 @@
         <v>8</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5555,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7076,7 +7076,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7164,7 +7164,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>129</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7341,11 +7341,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633391204</v>
+        <v>44387.766122685</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7611,7 +7611,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7807,7 +7807,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -9342,7 +9342,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9372,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
         <v>87</v>
@@ -9440,7 +9440,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>240</v>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9534,7 +9534,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9631,11 +9631,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633391204</v>
+        <v>44387.766122685</v>
       </c>
       <c r="D10" s="2">
         <v>959</v>
@@ -9660,7 +9660,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9726,7 +9726,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9815,7 +9815,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9838,7 +9838,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9907,7 +9907,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11622,7 +11622,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11652,7 +11652,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
         <v>87</v>
@@ -11720,7 +11720,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>130</v>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11814,7 +11814,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11911,11 +11911,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633391204</v>
+        <v>44387.766134259</v>
       </c>
       <c r="D10" s="2">
         <v>439</v>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12006,7 +12006,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12095,7 +12095,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12118,7 +12118,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12157,7 +12157,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -12189,7 +12189,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -13934,7 +13934,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -14022,7 +14022,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>131</v>
@@ -14110,7 +14110,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14199,11 +14199,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633391204</v>
+        <v>44387.766134259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14288,7 +14288,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14377,7 +14377,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14400,7 +14400,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14439,7 +14439,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14469,7 +14469,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -16252,7 +16252,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16340,7 +16340,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>132</v>
@@ -16428,7 +16428,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16517,11 +16517,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633391204</v>
+        <v>44387.766134259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16606,7 +16606,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16695,7 +16695,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16718,7 +16718,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16757,7 +16757,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16787,7 +16787,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
